--- a/data/pca/factorExposure/factorExposure_2018-11-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.07299588945808283</v>
+        <v>-0.04776214786675582</v>
       </c>
       <c r="C2">
-        <v>0.05639063835090898</v>
+        <v>-0.001332049257824799</v>
       </c>
       <c r="D2">
-        <v>-0.07058710726411363</v>
+        <v>0.02101682991150386</v>
       </c>
       <c r="E2">
-        <v>0.01694828441278412</v>
+        <v>0.01854673082287975</v>
       </c>
       <c r="F2">
-        <v>0.1393715616765517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03312027627144889</v>
+      </c>
+      <c r="G2">
+        <v>-0.1085885607220932</v>
+      </c>
+      <c r="H2">
+        <v>-0.0688791751992734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1977035821917</v>
+        <v>-0.1200067062700389</v>
       </c>
       <c r="C3">
-        <v>-0.007030372446579402</v>
+        <v>0.04505762428644394</v>
       </c>
       <c r="D3">
-        <v>-0.1354820535520749</v>
+        <v>0.0561800650739592</v>
       </c>
       <c r="E3">
-        <v>0.06739848200624031</v>
+        <v>0.01225505041181752</v>
       </c>
       <c r="F3">
-        <v>0.3715949839251023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.000289154104171221</v>
+      </c>
+      <c r="G3">
+        <v>-0.3459244253404774</v>
+      </c>
+      <c r="H3">
+        <v>-0.2553109272674229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06839672540965978</v>
+        <v>-0.05784988877377627</v>
       </c>
       <c r="C4">
-        <v>0.02805619688848657</v>
+        <v>0.007810717199235431</v>
       </c>
       <c r="D4">
-        <v>-0.04959186234645351</v>
+        <v>0.03090716150192724</v>
       </c>
       <c r="E4">
-        <v>0.05773658059296725</v>
+        <v>-0.01437211226688433</v>
       </c>
       <c r="F4">
-        <v>0.06225994396669984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06078975812169671</v>
+      </c>
+      <c r="G4">
+        <v>-0.06084617246229625</v>
+      </c>
+      <c r="H4">
+        <v>-0.0251912731954225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.00806726551719473</v>
+        <v>-0.03372172890305026</v>
       </c>
       <c r="C6">
-        <v>0.004012056074566628</v>
+        <v>0.00349072449644455</v>
       </c>
       <c r="D6">
-        <v>-0.002791640734577821</v>
+        <v>0.01534606602054736</v>
       </c>
       <c r="E6">
-        <v>-0.004756176274971375</v>
+        <v>-0.002128774069952211</v>
       </c>
       <c r="F6">
-        <v>-1.72152060745526e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02618881104369503</v>
+      </c>
+      <c r="G6">
+        <v>-0.01081869394763055</v>
+      </c>
+      <c r="H6">
+        <v>0.030632000916031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03725285764195451</v>
+        <v>-0.03069914635162555</v>
       </c>
       <c r="C7">
-        <v>0.0157619061230866</v>
+        <v>0.005503612258049745</v>
       </c>
       <c r="D7">
-        <v>-0.04639668633443006</v>
+        <v>0.007793713798606935</v>
       </c>
       <c r="E7">
-        <v>0.009226106655416649</v>
+        <v>-0.03137810356453487</v>
       </c>
       <c r="F7">
-        <v>0.05766421022724658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.024618840222914</v>
+      </c>
+      <c r="G7">
+        <v>-0.04572758896905974</v>
+      </c>
+      <c r="H7">
+        <v>-0.04462468672127311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03816078136762668</v>
+        <v>-0.01297674729506792</v>
       </c>
       <c r="C8">
-        <v>0.00104542561933641</v>
+        <v>0.006865190700247989</v>
       </c>
       <c r="D8">
-        <v>-0.04064599122602589</v>
+        <v>0.0328963811671668</v>
       </c>
       <c r="E8">
-        <v>0.04923455705506354</v>
+        <v>-0.01016680106024963</v>
       </c>
       <c r="F8">
-        <v>0.08762811861673341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02958741479849415</v>
+      </c>
+      <c r="G8">
+        <v>-0.07099309387859107</v>
+      </c>
+      <c r="H8">
+        <v>-0.05232832529399915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05456224732858815</v>
+        <v>-0.04546868796497167</v>
       </c>
       <c r="C9">
-        <v>0.0268217747493503</v>
+        <v>0.009621124587435506</v>
       </c>
       <c r="D9">
-        <v>-0.0331604143798285</v>
+        <v>0.02157371986268131</v>
       </c>
       <c r="E9">
-        <v>0.06435322743071811</v>
+        <v>-0.01515759361382833</v>
       </c>
       <c r="F9">
-        <v>0.06189992197922656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04248370261144046</v>
+      </c>
+      <c r="G9">
+        <v>-0.07709821062037385</v>
+      </c>
+      <c r="H9">
+        <v>-0.02750238949944493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03112312687172089</v>
+        <v>-0.05272223485395644</v>
       </c>
       <c r="C10">
-        <v>0.07073222226777456</v>
+        <v>0.01745395225076753</v>
       </c>
       <c r="D10">
-        <v>0.1083140942755032</v>
+        <v>-0.1507486138754641</v>
       </c>
       <c r="E10">
-        <v>-0.09918410363183983</v>
+        <v>0.01754748529256773</v>
       </c>
       <c r="F10">
-        <v>0.08063744627301725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07699816760411762</v>
+      </c>
+      <c r="G10">
+        <v>-0.0425163082815601</v>
+      </c>
+      <c r="H10">
+        <v>-0.02517630991752002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04618841474629534</v>
+        <v>-0.03251632445064425</v>
       </c>
       <c r="C11">
-        <v>0.006005865217411656</v>
+        <v>0.01762179829080576</v>
       </c>
       <c r="D11">
-        <v>-0.02937429438769882</v>
+        <v>0.02886938761677992</v>
       </c>
       <c r="E11">
-        <v>0.01563559380131416</v>
+        <v>0.006371707201623</v>
       </c>
       <c r="F11">
-        <v>0.03793133692119176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01889085365802542</v>
+      </c>
+      <c r="G11">
+        <v>-0.0452232463918199</v>
+      </c>
+      <c r="H11">
+        <v>-0.008593772098918895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04592701484345392</v>
+        <v>-0.03718406907978682</v>
       </c>
       <c r="C12">
-        <v>0.00763069762927009</v>
+        <v>0.01502591495238839</v>
       </c>
       <c r="D12">
-        <v>-0.02552292010806828</v>
+        <v>0.02829950454886937</v>
       </c>
       <c r="E12">
-        <v>0.03409871902141712</v>
+        <v>-0.005049381935738225</v>
       </c>
       <c r="F12">
-        <v>0.02172971333794253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02369678462196638</v>
+      </c>
+      <c r="G12">
+        <v>-0.0145767168703054</v>
+      </c>
+      <c r="H12">
+        <v>-0.007073085783914509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04824760810509248</v>
+        <v>-0.0382632863592705</v>
       </c>
       <c r="C13">
-        <v>0.02020430905901264</v>
+        <v>-0.004587592494099793</v>
       </c>
       <c r="D13">
-        <v>-0.05074725908292998</v>
+        <v>0.01465854457797034</v>
       </c>
       <c r="E13">
-        <v>-0.005869954953556873</v>
+        <v>0.01882027345986937</v>
       </c>
       <c r="F13">
-        <v>0.1120458732528321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01948341876739635</v>
+      </c>
+      <c r="G13">
+        <v>-0.08936682949175023</v>
+      </c>
+      <c r="H13">
+        <v>-0.03164851913254235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02489375884068293</v>
+        <v>-0.02104383215411352</v>
       </c>
       <c r="C14">
-        <v>0.01819638137355414</v>
+        <v>0.004867471045657046</v>
       </c>
       <c r="D14">
-        <v>-0.0377303443063201</v>
+        <v>0.008253727332432348</v>
       </c>
       <c r="E14">
-        <v>0.02572990032970937</v>
+        <v>-0.005133835683607728</v>
       </c>
       <c r="F14">
-        <v>0.04431199552174177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02951654792572163</v>
+      </c>
+      <c r="G14">
+        <v>-0.04116544803523241</v>
+      </c>
+      <c r="H14">
+        <v>-0.06429965027056628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03780734602181538</v>
+        <v>-0.03028755046048107</v>
       </c>
       <c r="C16">
-        <v>0.006758120462397986</v>
+        <v>0.01649631747960369</v>
       </c>
       <c r="D16">
-        <v>-0.02563476172281736</v>
+        <v>0.027540469074875</v>
       </c>
       <c r="E16">
-        <v>0.01614243556450509</v>
+        <v>0.0009390973494007927</v>
       </c>
       <c r="F16">
-        <v>0.02907023950394036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02114542094976612</v>
+      </c>
+      <c r="G16">
+        <v>-0.03314021635999886</v>
+      </c>
+      <c r="H16">
+        <v>-0.009438231877886531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05830027568065357</v>
+        <v>-0.04124383363555269</v>
       </c>
       <c r="C19">
-        <v>-0.0005430667928293122</v>
+        <v>0.008805505742121413</v>
       </c>
       <c r="D19">
-        <v>-0.04348564977333746</v>
+        <v>0.02813971486902477</v>
       </c>
       <c r="E19">
-        <v>0.01234440474201017</v>
+        <v>0.006237528339860883</v>
       </c>
       <c r="F19">
-        <v>0.09045965638985286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02836418640451034</v>
+      </c>
+      <c r="G19">
+        <v>-0.0886675071400561</v>
+      </c>
+      <c r="H19">
+        <v>-0.0401259555684098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01740423142069053</v>
+        <v>-0.01323019661052792</v>
       </c>
       <c r="C20">
-        <v>0.01058724322423305</v>
+        <v>-0.003488208535736077</v>
       </c>
       <c r="D20">
-        <v>-0.04312217292501032</v>
+        <v>0.01558330674775343</v>
       </c>
       <c r="E20">
-        <v>0.03815629806182776</v>
+        <v>-0.002887232120312413</v>
       </c>
       <c r="F20">
-        <v>0.05559205109792584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02220874244529967</v>
+      </c>
+      <c r="G20">
+        <v>-0.05261960679435985</v>
+      </c>
+      <c r="H20">
+        <v>-0.05939000628472303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01694184429144673</v>
+        <v>-0.02608689354808891</v>
       </c>
       <c r="C21">
-        <v>-0.006607412981747993</v>
+        <v>-0.001853607162375792</v>
       </c>
       <c r="D21">
-        <v>-0.03609750986276062</v>
+        <v>0.01414884824841912</v>
       </c>
       <c r="E21">
-        <v>0.01860829714918286</v>
+        <v>-0.0106975249454598</v>
       </c>
       <c r="F21">
-        <v>0.09722497583420288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.009768612670315091</v>
+      </c>
+      <c r="G21">
+        <v>-0.07416729251937935</v>
+      </c>
+      <c r="H21">
+        <v>-0.02637312197604892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0347835048945895</v>
+        <v>-0.02928533209772591</v>
       </c>
       <c r="C24">
-        <v>0.005716033006800294</v>
+        <v>0.01111613650987112</v>
       </c>
       <c r="D24">
-        <v>-0.02236529887645237</v>
+        <v>0.02514492304597261</v>
       </c>
       <c r="E24">
-        <v>0.01717953115896634</v>
+        <v>0.0001308407078903861</v>
       </c>
       <c r="F24">
-        <v>0.03830183881724407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01790934506603324</v>
+      </c>
+      <c r="G24">
+        <v>-0.03558403896195621</v>
+      </c>
+      <c r="H24">
+        <v>-0.005153910166523357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04018941226569746</v>
+        <v>-0.0397627466591106</v>
       </c>
       <c r="C25">
-        <v>0.0056221128231317</v>
+        <v>0.0104723514598766</v>
       </c>
       <c r="D25">
-        <v>-0.02563797037577278</v>
+        <v>0.02519155499442514</v>
       </c>
       <c r="E25">
-        <v>0.02391167644883327</v>
+        <v>0.0002135841844836046</v>
       </c>
       <c r="F25">
-        <v>0.04517279427890045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02183964761800272</v>
+      </c>
+      <c r="G25">
+        <v>-0.04311643931383499</v>
+      </c>
+      <c r="H25">
+        <v>-0.002013599283733015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02012173313890517</v>
+        <v>-0.01971567856830143</v>
       </c>
       <c r="C26">
-        <v>-0.004676462004464633</v>
+        <v>-0.01543501283119909</v>
       </c>
       <c r="D26">
-        <v>-0.04866275381580322</v>
+        <v>0.01739964982647514</v>
       </c>
       <c r="E26">
-        <v>0.008122728576865509</v>
+        <v>0.005198547211076426</v>
       </c>
       <c r="F26">
-        <v>0.04920661054314655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007742283921821494</v>
+      </c>
+      <c r="G26">
+        <v>-0.04779710800549064</v>
+      </c>
+      <c r="H26">
+        <v>-0.04113387024097856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09939683869371284</v>
+        <v>-0.04916817307191005</v>
       </c>
       <c r="C27">
-        <v>0.04775440362054868</v>
+        <v>0.02501089265480094</v>
       </c>
       <c r="D27">
-        <v>-0.02790739672872146</v>
+        <v>0.008405715989627756</v>
       </c>
       <c r="E27">
-        <v>0.03556182381375093</v>
+        <v>0.001351025811022978</v>
       </c>
       <c r="F27">
-        <v>0.06492886288567509</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0245759188682824</v>
+      </c>
+      <c r="G27">
+        <v>-0.04611421562432343</v>
+      </c>
+      <c r="H27">
+        <v>-0.03237732933987155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04528010624806703</v>
+        <v>-0.0808592206291716</v>
       </c>
       <c r="C28">
-        <v>0.08888084441818911</v>
+        <v>0.0132901608872747</v>
       </c>
       <c r="D28">
-        <v>0.1801300149239025</v>
+        <v>-0.2353133816950491</v>
       </c>
       <c r="E28">
-        <v>-0.1436413547719982</v>
+        <v>0.01865353760179175</v>
       </c>
       <c r="F28">
-        <v>0.05808280548666387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1052874922527418</v>
+      </c>
+      <c r="G28">
+        <v>-0.01934499046709573</v>
+      </c>
+      <c r="H28">
+        <v>-0.05349699797104687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02768646061024807</v>
+        <v>-0.02293222890222449</v>
       </c>
       <c r="C29">
-        <v>0.01259159150723936</v>
+        <v>0.005880101478517518</v>
       </c>
       <c r="D29">
-        <v>-0.03525498826892493</v>
+        <v>0.01060490993242556</v>
       </c>
       <c r="E29">
-        <v>0.03470269365731662</v>
+        <v>-0.006692374060686761</v>
       </c>
       <c r="F29">
-        <v>0.0273773571091966</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02897576042072398</v>
+      </c>
+      <c r="G29">
+        <v>-0.03428230225097034</v>
+      </c>
+      <c r="H29">
+        <v>-0.06553569478131877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1002278222308997</v>
+        <v>-0.07732128753076449</v>
       </c>
       <c r="C30">
-        <v>0.05029867956073191</v>
+        <v>0.01587913047937905</v>
       </c>
       <c r="D30">
-        <v>-0.06544394261091274</v>
+        <v>0.04125502230983798</v>
       </c>
       <c r="E30">
-        <v>0.02602520344293949</v>
+        <v>0.04512328950041034</v>
       </c>
       <c r="F30">
-        <v>0.07808288558737378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05832205618878528</v>
+      </c>
+      <c r="G30">
+        <v>-0.09188984673601115</v>
+      </c>
+      <c r="H30">
+        <v>-0.01306585956900112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06155084253649195</v>
+        <v>-0.05390127309400899</v>
       </c>
       <c r="C31">
-        <v>0.01607214537476173</v>
+        <v>0.02256977029578576</v>
       </c>
       <c r="D31">
-        <v>-0.03816944464014489</v>
+        <v>0.01289733217247158</v>
       </c>
       <c r="E31">
-        <v>-0.02330975679617327</v>
+        <v>0.01141885987619228</v>
       </c>
       <c r="F31">
-        <v>0.01810241467302181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01431101996226907</v>
+      </c>
+      <c r="G31">
+        <v>-0.01447944184919258</v>
+      </c>
+      <c r="H31">
+        <v>-0.06044627418756257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.05008696170782733</v>
+        <v>-0.02097366383016672</v>
       </c>
       <c r="C32">
-        <v>0.02203011459598977</v>
+        <v>0.02200423730457815</v>
       </c>
       <c r="D32">
-        <v>-0.04625286377775794</v>
+        <v>0.0203672727380995</v>
       </c>
       <c r="E32">
-        <v>0.0429645991582349</v>
+        <v>-0.01354399091859557</v>
       </c>
       <c r="F32">
-        <v>0.06802181298381868</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05419306461054021</v>
+      </c>
+      <c r="G32">
+        <v>-0.07748947196502612</v>
+      </c>
+      <c r="H32">
+        <v>-0.007817593298225747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06354710172590179</v>
+        <v>-0.04599645843240813</v>
       </c>
       <c r="C33">
-        <v>-0.0002179925922850897</v>
+        <v>0.01037570218494372</v>
       </c>
       <c r="D33">
-        <v>-0.06508046630085892</v>
+        <v>0.03898904605488501</v>
       </c>
       <c r="E33">
-        <v>0.01514900267256921</v>
+        <v>0.02279973274146477</v>
       </c>
       <c r="F33">
-        <v>0.08324128910308547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.011528989556585</v>
+      </c>
+      <c r="G33">
+        <v>-0.07626599425092653</v>
+      </c>
+      <c r="H33">
+        <v>-0.04883389015938744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0399258206917157</v>
+        <v>-0.0310103322709531</v>
       </c>
       <c r="C34">
-        <v>0.0126101745738135</v>
+        <v>0.0245846321840587</v>
       </c>
       <c r="D34">
-        <v>-0.02903998019726446</v>
+        <v>0.02623086848404427</v>
       </c>
       <c r="E34">
-        <v>0.02341233363193309</v>
+        <v>-0.004576542529583783</v>
       </c>
       <c r="F34">
-        <v>0.03894695593079357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02668195173139975</v>
+      </c>
+      <c r="G34">
+        <v>-0.03671293140068926</v>
+      </c>
+      <c r="H34">
+        <v>-0.006910879258912342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01882168525507156</v>
+        <v>-0.02008143701044553</v>
       </c>
       <c r="C36">
-        <v>0.01159620022739551</v>
+        <v>-0.001995550131936531</v>
       </c>
       <c r="D36">
-        <v>-0.005674427467968496</v>
+        <v>-0.001857066202562513</v>
       </c>
       <c r="E36">
-        <v>0.007126648236775882</v>
+        <v>-0.001530073799758643</v>
       </c>
       <c r="F36">
-        <v>0.03219988677590147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.004744155611221353</v>
+      </c>
+      <c r="G36">
+        <v>-0.03076926963946871</v>
+      </c>
+      <c r="H36">
+        <v>-0.03691123323017872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01291784071675971</v>
+        <v>-0.01782760968074597</v>
       </c>
       <c r="C38">
-        <v>0.006818924774218735</v>
+        <v>0.01777359961996796</v>
       </c>
       <c r="D38">
-        <v>0.01401894904526607</v>
+        <v>0.0005559177739112799</v>
       </c>
       <c r="E38">
-        <v>0.001330882132210243</v>
+        <v>-0.002985395562416273</v>
       </c>
       <c r="F38">
-        <v>0.03056435351990872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.004486384669162158</v>
+      </c>
+      <c r="G38">
+        <v>-0.04209079363840194</v>
+      </c>
+      <c r="H38">
+        <v>-0.01872631300193231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05210795566887732</v>
+        <v>-0.03847909577372006</v>
       </c>
       <c r="C39">
-        <v>0.01667715636946995</v>
+        <v>0.01527437447723305</v>
       </c>
       <c r="D39">
-        <v>-0.04598484469670077</v>
+        <v>0.0452266949845513</v>
       </c>
       <c r="E39">
-        <v>0.01392862502028711</v>
+        <v>0.005568639367676878</v>
       </c>
       <c r="F39">
-        <v>0.04031078792526681</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04249199760412729</v>
+      </c>
+      <c r="G39">
+        <v>-0.05493039861706491</v>
+      </c>
+      <c r="H39">
+        <v>0.004092912607518832</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.05403264610575696</v>
+        <v>-0.0430288745992856</v>
       </c>
       <c r="C40">
-        <v>0.03720265869908254</v>
+        <v>0.01213928380339294</v>
       </c>
       <c r="D40">
-        <v>-0.07743390296938968</v>
+        <v>0.033548767134612</v>
       </c>
       <c r="E40">
-        <v>0.001329765924888152</v>
+        <v>0.02427057414278321</v>
       </c>
       <c r="F40">
-        <v>0.08595805249065078</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03378446507278669</v>
+      </c>
+      <c r="G40">
+        <v>-0.07199754236344449</v>
+      </c>
+      <c r="H40">
+        <v>-0.03119826629232705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004658067059917001</v>
+        <v>-0.00446821838231855</v>
       </c>
       <c r="C41">
-        <v>-0.006548919126454921</v>
+        <v>-0.002189347276288691</v>
       </c>
       <c r="D41">
-        <v>-0.01926122907723319</v>
+        <v>0.0004789925404696677</v>
       </c>
       <c r="E41">
-        <v>0.0153310435526875</v>
+        <v>-0.0001494695199983307</v>
       </c>
       <c r="F41">
-        <v>0.008338297249329427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0004817853007431793</v>
+      </c>
+      <c r="G41">
+        <v>-0.009032775003287755</v>
+      </c>
+      <c r="H41">
+        <v>-0.04957987933838834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3553439031242295</v>
+        <v>-0.2387646455822986</v>
       </c>
       <c r="C42">
-        <v>-0.877509350146225</v>
+        <v>-0.04667981361913335</v>
       </c>
       <c r="D42">
-        <v>0.09299118358660496</v>
+        <v>0.4914566118103423</v>
       </c>
       <c r="E42">
-        <v>-0.2543345124135479</v>
+        <v>0.03074124700931823</v>
       </c>
       <c r="F42">
-        <v>-0.05450527853626141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8176671016335378</v>
+      </c>
+      <c r="G42">
+        <v>0.09583560107028394</v>
+      </c>
+      <c r="H42">
+        <v>0.02222715259444376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01058120998849427</v>
+        <v>-0.001888220135219416</v>
       </c>
       <c r="C43">
-        <v>-0.003206353832584843</v>
+        <v>-0.004449535207526514</v>
       </c>
       <c r="D43">
-        <v>-0.02694284644257583</v>
+        <v>0.00127794815707392</v>
       </c>
       <c r="E43">
-        <v>0.01262754755995511</v>
+        <v>0.003253434993966385</v>
       </c>
       <c r="F43">
-        <v>0.0317906684767296</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0009467720174681397</v>
+      </c>
+      <c r="G43">
+        <v>-0.0200422729995888</v>
+      </c>
+      <c r="H43">
+        <v>-0.04658460851740405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03373473841909163</v>
+        <v>-0.01653251955664424</v>
       </c>
       <c r="C44">
-        <v>0.002174377116501223</v>
+        <v>0.004424659539239153</v>
       </c>
       <c r="D44">
-        <v>-0.05859589192888594</v>
+        <v>0.02213716830786714</v>
       </c>
       <c r="E44">
-        <v>0.02794994860192292</v>
+        <v>-0.001918520148069964</v>
       </c>
       <c r="F44">
-        <v>0.1618028514620422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01299207367909908</v>
+      </c>
+      <c r="G44">
+        <v>-0.117968351317675</v>
+      </c>
+      <c r="H44">
+        <v>-0.08645717686501367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02800356882153737</v>
+        <v>-0.02244762044656014</v>
       </c>
       <c r="C46">
-        <v>0.01029233438237907</v>
+        <v>0.002423548807034253</v>
       </c>
       <c r="D46">
-        <v>-0.05163586651683454</v>
+        <v>0.02138669449284031</v>
       </c>
       <c r="E46">
-        <v>0.0258766482349095</v>
+        <v>0.005191419396606108</v>
       </c>
       <c r="F46">
-        <v>0.02680572395991244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0373798264003151</v>
+      </c>
+      <c r="G46">
+        <v>-0.04914452959886468</v>
+      </c>
+      <c r="H46">
+        <v>-0.06253283825556608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0939710447566211</v>
+        <v>-0.07796521692857804</v>
       </c>
       <c r="C47">
-        <v>0.03062996470111689</v>
+        <v>0.04306185719816349</v>
       </c>
       <c r="D47">
-        <v>-0.03153709768708626</v>
+        <v>0.01848650387877818</v>
       </c>
       <c r="E47">
-        <v>0.01422930047549036</v>
+        <v>0.007485877912176349</v>
       </c>
       <c r="F47">
-        <v>-0.008321069288032777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02560708784643729</v>
+      </c>
+      <c r="G47">
+        <v>0.01718442105748422</v>
+      </c>
+      <c r="H47">
+        <v>-0.07249788423580093</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01671073310115272</v>
+        <v>-0.01910116063574977</v>
       </c>
       <c r="C48">
-        <v>0.006964742627637033</v>
+        <v>0.008424636790914142</v>
       </c>
       <c r="D48">
-        <v>-0.03052738728980942</v>
+        <v>0.008185472007312367</v>
       </c>
       <c r="E48">
-        <v>0.01415393403142061</v>
+        <v>0.00151914310959026</v>
       </c>
       <c r="F48">
-        <v>0.04286435107014946</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01049561962502847</v>
+      </c>
+      <c r="G48">
+        <v>-0.03403441907288218</v>
+      </c>
+      <c r="H48">
+        <v>-0.03182096280538205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09811966898538498</v>
+        <v>-0.07570261747250551</v>
       </c>
       <c r="C50">
-        <v>0.01017403292629929</v>
+        <v>0.03857778862119937</v>
       </c>
       <c r="D50">
-        <v>-0.03848899795938564</v>
+        <v>0.0315019080466859</v>
       </c>
       <c r="E50">
-        <v>0.001023381080901227</v>
+        <v>-0.005568200057030556</v>
       </c>
       <c r="F50">
-        <v>-0.001612423757585807</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01670757272081285</v>
+      </c>
+      <c r="G50">
+        <v>-0.01164975348580645</v>
+      </c>
+      <c r="H50">
+        <v>-0.06042488416548578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04514513217469459</v>
+        <v>-0.02379698961524705</v>
       </c>
       <c r="C51">
-        <v>0.00277567590515173</v>
+        <v>0.003269199339462523</v>
       </c>
       <c r="D51">
-        <v>-0.02955078918382265</v>
+        <v>-0.004620501391703133</v>
       </c>
       <c r="E51">
-        <v>-0.03744362773434586</v>
+        <v>0.01230829156981776</v>
       </c>
       <c r="F51">
-        <v>0.1331881740962586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01434129339521644</v>
+      </c>
+      <c r="G51">
+        <v>-0.09369701582033342</v>
+      </c>
+      <c r="H51">
+        <v>-0.06357917866875658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1197787326651726</v>
+        <v>-0.1033698278400929</v>
       </c>
       <c r="C53">
-        <v>0.02825292444081252</v>
+        <v>0.05708591092077017</v>
       </c>
       <c r="D53">
-        <v>-0.06540528325579516</v>
+        <v>0.04810057833790991</v>
       </c>
       <c r="E53">
-        <v>0.0178959450346521</v>
+        <v>0.006806874808318022</v>
       </c>
       <c r="F53">
-        <v>-0.07490984341221715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05611366713895269</v>
+      </c>
+      <c r="G53">
+        <v>0.05571328304726121</v>
+      </c>
+      <c r="H53">
+        <v>-0.03134300005666295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02374551112396749</v>
+        <v>-0.02024250315942825</v>
       </c>
       <c r="C54">
-        <v>0.02525333237321079</v>
+        <v>0.01433482139801728</v>
       </c>
       <c r="D54">
-        <v>-0.02052662106525585</v>
+        <v>-0.009342929358505203</v>
       </c>
       <c r="E54">
-        <v>0.01795719028390631</v>
+        <v>-0.001958780766266244</v>
       </c>
       <c r="F54">
-        <v>0.04921366249435424</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0196925083304061</v>
+      </c>
+      <c r="G54">
+        <v>-0.04125348367085442</v>
+      </c>
+      <c r="H54">
+        <v>-0.07018454011600227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1054599977785339</v>
+        <v>-0.08841024293351882</v>
       </c>
       <c r="C55">
-        <v>0.02584584901990419</v>
+        <v>0.04976731094797836</v>
       </c>
       <c r="D55">
-        <v>-0.01518684675878025</v>
+        <v>0.03920755391372541</v>
       </c>
       <c r="E55">
-        <v>0.04125932165108154</v>
+        <v>-0.007193578933630622</v>
       </c>
       <c r="F55">
-        <v>-0.06476705577041825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04567509616839477</v>
+      </c>
+      <c r="G55">
+        <v>0.04633121442608437</v>
+      </c>
+      <c r="H55">
+        <v>-0.0428344986143682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1435056926195069</v>
+        <v>-0.1354777795436357</v>
       </c>
       <c r="C56">
-        <v>0.07237811966705587</v>
+        <v>0.08106040561631994</v>
       </c>
       <c r="D56">
-        <v>-0.04223525932755435</v>
+        <v>0.04131498952678853</v>
       </c>
       <c r="E56">
-        <v>0.04077568411587189</v>
+        <v>0.003409726452060497</v>
       </c>
       <c r="F56">
-        <v>-0.147470250955911</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07621665152120569</v>
+      </c>
+      <c r="G56">
+        <v>0.1049366234206259</v>
+      </c>
+      <c r="H56">
+        <v>-0.001368138799052878</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.05925539106303367</v>
+        <v>-0.05515298098759557</v>
       </c>
       <c r="C57">
-        <v>0.022629195555057</v>
+        <v>0.002303293202769501</v>
       </c>
       <c r="D57">
-        <v>-0.04248514383569757</v>
+        <v>0.01820475210126503</v>
       </c>
       <c r="E57">
-        <v>-0.006594888162445946</v>
+        <v>0.01676355090965663</v>
       </c>
       <c r="F57">
-        <v>0.07760304510195055</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01455210757268631</v>
+      </c>
+      <c r="G57">
+        <v>-0.06106656584226231</v>
+      </c>
+      <c r="H57">
+        <v>-0.01842000381927841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2330482765417673</v>
+        <v>-0.1718008923359201</v>
       </c>
       <c r="C58">
-        <v>0.04773311322905222</v>
+        <v>0.07448481284223638</v>
       </c>
       <c r="D58">
-        <v>-0.121683025580108</v>
+        <v>0.07424913825040236</v>
       </c>
       <c r="E58">
-        <v>0.009719958156148362</v>
+        <v>0.1135503272615065</v>
       </c>
       <c r="F58">
-        <v>0.1789836518252011</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.004774037193918095</v>
+      </c>
+      <c r="G58">
+        <v>-0.4139521347679576</v>
+      </c>
+      <c r="H58">
+        <v>-0.3632039894946204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0511749169081865</v>
+        <v>-0.08257734366682183</v>
       </c>
       <c r="C59">
-        <v>0.1098837551402396</v>
+        <v>0.02243454251175343</v>
       </c>
       <c r="D59">
-        <v>0.1333613559691696</v>
+        <v>-0.2090490703039851</v>
       </c>
       <c r="E59">
-        <v>-0.09423753901741894</v>
+        <v>0.03372946708282339</v>
       </c>
       <c r="F59">
-        <v>0.04242988364442225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06949295165996373</v>
+      </c>
+      <c r="G59">
+        <v>-0.04324090471791642</v>
+      </c>
+      <c r="H59">
+        <v>-0.008319918569533572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1779733633418968</v>
+        <v>-0.1839623123373182</v>
       </c>
       <c r="C60">
-        <v>0.08067121405409035</v>
+        <v>0.06767341164159461</v>
       </c>
       <c r="D60">
-        <v>-0.007190085890424575</v>
+        <v>-0.04050307014756266</v>
       </c>
       <c r="E60">
-        <v>-0.08499637680253648</v>
+        <v>0.07038408543472417</v>
       </c>
       <c r="F60">
-        <v>0.1356224852599429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.02687119563247063</v>
+      </c>
+      <c r="G60">
+        <v>-0.1987866492603856</v>
+      </c>
+      <c r="H60">
+        <v>0.3729615627491567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03299643442930759</v>
+        <v>-0.03241958686222621</v>
       </c>
       <c r="C61">
-        <v>0.009627399658649049</v>
+        <v>0.01588708325967675</v>
       </c>
       <c r="D61">
-        <v>-0.01856296529916686</v>
+        <v>0.02993477594936485</v>
       </c>
       <c r="E61">
-        <v>0.01987255715086554</v>
+        <v>-9.228250984579738e-05</v>
       </c>
       <c r="F61">
-        <v>0.033875434534498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02874483623183739</v>
+      </c>
+      <c r="G61">
+        <v>-0.03889675057468758</v>
+      </c>
+      <c r="H61">
+        <v>0.009667654524713491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02828044723559781</v>
+        <v>-0.02247192703702587</v>
       </c>
       <c r="C63">
-        <v>0.01919331277933298</v>
+        <v>0.005120048303835671</v>
       </c>
       <c r="D63">
-        <v>-0.04613933704254295</v>
+        <v>0.01849655366487781</v>
       </c>
       <c r="E63">
-        <v>0.02516795757597842</v>
+        <v>0.001799547145937367</v>
       </c>
       <c r="F63">
-        <v>0.03431864941582316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02522238166558277</v>
+      </c>
+      <c r="G63">
+        <v>-0.0313378504111494</v>
+      </c>
+      <c r="H63">
+        <v>-0.05484578602378568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.052709303268391</v>
+        <v>-0.0479896856804311</v>
       </c>
       <c r="C64">
-        <v>0.009380168137764759</v>
+        <v>0.0211710494842441</v>
       </c>
       <c r="D64">
-        <v>-0.0405597783252881</v>
+        <v>0.03739109937942243</v>
       </c>
       <c r="E64">
-        <v>0.0627358149088955</v>
+        <v>-0.008593975155570623</v>
       </c>
       <c r="F64">
-        <v>0.05821738463896944</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03140046722150432</v>
+      </c>
+      <c r="G64">
+        <v>-0.03890397795331296</v>
+      </c>
+      <c r="H64">
+        <v>-0.02905516717476367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.007612210378637262</v>
+        <v>-0.03941385030144135</v>
       </c>
       <c r="C65">
-        <v>0.002631774203556063</v>
+        <v>0.004319238953289397</v>
       </c>
       <c r="D65">
-        <v>-0.001663893543880773</v>
+        <v>0.01682751109784761</v>
       </c>
       <c r="E65">
-        <v>-0.005797722105230345</v>
+        <v>-0.001947515512274285</v>
       </c>
       <c r="F65">
-        <v>0.0002857660509322267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02636571308136908</v>
+      </c>
+      <c r="G65">
+        <v>-0.004725151041340558</v>
+      </c>
+      <c r="H65">
+        <v>0.03652797982810679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0559387202840411</v>
+        <v>-0.04816023878326554</v>
       </c>
       <c r="C66">
-        <v>0.02630700357620454</v>
+        <v>0.02327671953526486</v>
       </c>
       <c r="D66">
-        <v>-0.05540005424165496</v>
+        <v>0.04946271665738434</v>
       </c>
       <c r="E66">
-        <v>0.02828230666555394</v>
+        <v>0.01454971162812154</v>
       </c>
       <c r="F66">
-        <v>0.06888604312101591</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06390859667267823</v>
+      </c>
+      <c r="G66">
+        <v>-0.06228142584063096</v>
+      </c>
+      <c r="H66">
+        <v>0.0196597363343681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02848918029561357</v>
+        <v>-0.03499881089716477</v>
       </c>
       <c r="C67">
-        <v>0.01682538653401664</v>
+        <v>0.02194581081495701</v>
       </c>
       <c r="D67">
-        <v>0.02637302890432814</v>
+        <v>-0.01080092293363468</v>
       </c>
       <c r="E67">
-        <v>-0.01394462760758208</v>
+        <v>0.002190741127240854</v>
       </c>
       <c r="F67">
-        <v>0.03972885342702302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.004016913035513698</v>
+      </c>
+      <c r="G67">
+        <v>-0.03495494957939396</v>
+      </c>
+      <c r="H67">
+        <v>-0.0006406966000922378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05937878754129532</v>
+        <v>-0.08890756246166931</v>
       </c>
       <c r="C68">
-        <v>0.09844420277191461</v>
+        <v>0.001839068957020967</v>
       </c>
       <c r="D68">
-        <v>0.1855202540558873</v>
+        <v>-0.2240586498087463</v>
       </c>
       <c r="E68">
-        <v>-0.1399532983318607</v>
+        <v>0.02874220561607704</v>
       </c>
       <c r="F68">
-        <v>-0.009236873459274916</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1015073859922782</v>
+      </c>
+      <c r="G68">
+        <v>0.00391668252669137</v>
+      </c>
+      <c r="H68">
+        <v>-0.04568389496867523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07577842831949187</v>
+        <v>-0.06319241244985908</v>
       </c>
       <c r="C69">
-        <v>0.02887105744381967</v>
+        <v>0.03923021873935185</v>
       </c>
       <c r="D69">
-        <v>-0.01678188481715125</v>
+        <v>0.01361096746257338</v>
       </c>
       <c r="E69">
-        <v>-0.005877942430525183</v>
+        <v>0.009789619819813772</v>
       </c>
       <c r="F69">
-        <v>0.006230961956554755</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01977437694494763</v>
+      </c>
+      <c r="G69">
+        <v>0.001022717274913984</v>
+      </c>
+      <c r="H69">
+        <v>-0.04470517084815547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05795614600835231</v>
+        <v>-0.08571627570866291</v>
       </c>
       <c r="C71">
-        <v>0.1169253525717233</v>
+        <v>0.01003699650214292</v>
       </c>
       <c r="D71">
-        <v>0.2268250538675652</v>
+        <v>-0.2384549469226639</v>
       </c>
       <c r="E71">
-        <v>-0.224707719197802</v>
+        <v>0.0353246799061232</v>
       </c>
       <c r="F71">
-        <v>0.05935253059633275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1230109210366194</v>
+      </c>
+      <c r="G71">
+        <v>-0.01613828345311265</v>
+      </c>
+      <c r="H71">
+        <v>-0.01784949815664957</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1288596855089131</v>
+        <v>-0.1163315180720419</v>
       </c>
       <c r="C72">
-        <v>0.09830763746407639</v>
+        <v>0.07143034722783269</v>
       </c>
       <c r="D72">
-        <v>-0.04680822175809026</v>
+        <v>0.03448009750096181</v>
       </c>
       <c r="E72">
-        <v>0.03103498259592794</v>
+        <v>0.0217814069029643</v>
       </c>
       <c r="F72">
-        <v>0.01959609555594863</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09764552416353534</v>
+      </c>
+      <c r="G72">
+        <v>-0.1087755626425051</v>
+      </c>
+      <c r="H72">
+        <v>0.08180915777803918</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2536425165519236</v>
+        <v>-0.2539157595125846</v>
       </c>
       <c r="C73">
-        <v>0.115890708691325</v>
+        <v>0.08904884485733117</v>
       </c>
       <c r="D73">
-        <v>0.03202963064730482</v>
+        <v>-0.02990099547024052</v>
       </c>
       <c r="E73">
-        <v>-0.1215545288927386</v>
+        <v>0.1048239368086713</v>
       </c>
       <c r="F73">
-        <v>0.2498065988127036</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.01781644946853573</v>
+      </c>
+      <c r="G73">
+        <v>-0.2660691406395243</v>
+      </c>
+      <c r="H73">
+        <v>0.537363974825393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1317853956547613</v>
+        <v>-0.1241473190610454</v>
       </c>
       <c r="C74">
-        <v>0.02748941212769367</v>
+        <v>0.0730834075807433</v>
       </c>
       <c r="D74">
-        <v>-0.03426097976161944</v>
+        <v>0.04577522019939878</v>
       </c>
       <c r="E74">
-        <v>0.01937660528948625</v>
+        <v>0.0103798567217614</v>
       </c>
       <c r="F74">
-        <v>-0.1168198557212718</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05543746328910977</v>
+      </c>
+      <c r="G74">
+        <v>0.08862205212653078</v>
+      </c>
+      <c r="H74">
+        <v>0.009913391047964735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.229437416535539</v>
+        <v>-0.2326389330212396</v>
       </c>
       <c r="C75">
-        <v>0.09760325946495106</v>
+        <v>0.1402678192555775</v>
       </c>
       <c r="D75">
-        <v>-0.07627401785020099</v>
+        <v>0.05476751752063413</v>
       </c>
       <c r="E75">
-        <v>0.0147709888308705</v>
+        <v>0.03562448364498789</v>
       </c>
       <c r="F75">
-        <v>-0.176353321437648</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1206327415031083</v>
+      </c>
+      <c r="G75">
+        <v>0.1751934803844451</v>
+      </c>
+      <c r="H75">
+        <v>-0.0147715218604019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.244529783444837</v>
+        <v>-0.2221325266001644</v>
       </c>
       <c r="C76">
-        <v>0.1166740334180148</v>
+        <v>0.1368341699864437</v>
       </c>
       <c r="D76">
-        <v>-0.01950523812139687</v>
+        <v>0.04350688826908081</v>
       </c>
       <c r="E76">
-        <v>0.0627757790180971</v>
+        <v>-0.006348024672830904</v>
       </c>
       <c r="F76">
-        <v>-0.2089823554055854</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.125366507860948</v>
+      </c>
+      <c r="G76">
+        <v>0.1972537235887801</v>
+      </c>
+      <c r="H76">
+        <v>-0.0371624863141686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.156742080062996</v>
+        <v>-0.09699737785398399</v>
       </c>
       <c r="C77">
-        <v>-0.0195477323146054</v>
+        <v>0.03147171131746488</v>
       </c>
       <c r="D77">
-        <v>-0.07705332613316787</v>
+        <v>0.07517888217535228</v>
       </c>
       <c r="E77">
-        <v>0.007287221646952931</v>
+        <v>0.01347609066917398</v>
       </c>
       <c r="F77">
-        <v>0.2069684983189005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0125648076827715</v>
+      </c>
+      <c r="G77">
+        <v>-0.1471628484376352</v>
+      </c>
+      <c r="H77">
+        <v>-0.1989805096160456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07617430248382924</v>
+        <v>-0.05149018743124404</v>
       </c>
       <c r="C78">
-        <v>-0.003885794400673374</v>
+        <v>0.02438322749022797</v>
       </c>
       <c r="D78">
-        <v>-0.08008177404997691</v>
+        <v>0.0541877562751757</v>
       </c>
       <c r="E78">
-        <v>0.06184570706161556</v>
+        <v>-0.001460775127802185</v>
       </c>
       <c r="F78">
-        <v>0.05382998717463321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04631432268917204</v>
+      </c>
+      <c r="G78">
+        <v>-0.07548480702961823</v>
+      </c>
+      <c r="H78">
+        <v>-0.0291706489256847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1536382046661861</v>
+        <v>-0.1731074039721991</v>
       </c>
       <c r="C80">
-        <v>-0.105015610807752</v>
+        <v>0.06922864037525156</v>
       </c>
       <c r="D80">
-        <v>0.6024608915920949</v>
+        <v>-0.06469821274901333</v>
       </c>
       <c r="E80">
-        <v>0.7497032863433359</v>
+        <v>-0.9648954972128583</v>
       </c>
       <c r="F80">
-        <v>0.1139185432472205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.047216236909727</v>
+      </c>
+      <c r="G80">
+        <v>-0.094796332194708</v>
+      </c>
+      <c r="H80">
+        <v>0.03090860133203681</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1603753990064595</v>
+        <v>-0.1606305705126856</v>
       </c>
       <c r="C81">
-        <v>0.08087218780788021</v>
+        <v>0.09683451091496058</v>
       </c>
       <c r="D81">
-        <v>-0.05424724658116947</v>
+        <v>0.03906177001474227</v>
       </c>
       <c r="E81">
-        <v>0.04170084879281642</v>
+        <v>0.009330185575238457</v>
       </c>
       <c r="F81">
-        <v>-0.194769013536724</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09541168517956089</v>
+      </c>
+      <c r="G81">
+        <v>0.1325725543359408</v>
+      </c>
+      <c r="H81">
+        <v>-0.03759403886891501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0573271070033089</v>
+        <v>-0.04320495949545417</v>
       </c>
       <c r="C83">
-        <v>-0.02045996562613297</v>
+        <v>0.0160585905166217</v>
       </c>
       <c r="D83">
-        <v>-0.0572493526255215</v>
+        <v>0.02811971535298424</v>
       </c>
       <c r="E83">
-        <v>0.01094382039665317</v>
+        <v>0.0129110489439652</v>
       </c>
       <c r="F83">
-        <v>0.05947472260764541</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.009410229763845266</v>
+      </c>
+      <c r="G83">
+        <v>-0.05684039206056325</v>
+      </c>
+      <c r="H83">
+        <v>-0.03567830703356614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2191609412561159</v>
+        <v>-0.2171892884440574</v>
       </c>
       <c r="C85">
-        <v>0.06525015519820691</v>
+        <v>0.1204641119237875</v>
       </c>
       <c r="D85">
-        <v>-0.05977494352816451</v>
+        <v>0.08275642964118113</v>
       </c>
       <c r="E85">
-        <v>0.05905594623510368</v>
+        <v>0.01945851874856357</v>
       </c>
       <c r="F85">
-        <v>-0.2344020622944235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1168439152758353</v>
+      </c>
+      <c r="G85">
+        <v>0.1923214696460359</v>
+      </c>
+      <c r="H85">
+        <v>-0.02615773766537681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02364304158942818</v>
+        <v>-0.0128917938693277</v>
       </c>
       <c r="C86">
-        <v>-0.01027584851004062</v>
+        <v>0.0007557159572656203</v>
       </c>
       <c r="D86">
-        <v>-0.05969826095226369</v>
+        <v>0.02965961646416124</v>
       </c>
       <c r="E86">
-        <v>0.02577354522330036</v>
+        <v>0.004891814305805605</v>
       </c>
       <c r="F86">
-        <v>0.08812304388980452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01523487445797218</v>
+      </c>
+      <c r="G86">
+        <v>-0.09903545926560355</v>
+      </c>
+      <c r="H86">
+        <v>-0.0582881521750621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0127088402591851</v>
+        <v>-0.0218859821587046</v>
       </c>
       <c r="C87">
-        <v>0.03451322300004975</v>
+        <v>0.002617245213468536</v>
       </c>
       <c r="D87">
-        <v>0.03695632756372402</v>
+        <v>-0.009674847517011555</v>
       </c>
       <c r="E87">
-        <v>-0.03158606970138213</v>
+        <v>0.001391334797160085</v>
       </c>
       <c r="F87">
-        <v>0.09010863012405455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.002225889124868867</v>
+      </c>
+      <c r="G87">
+        <v>-0.09907651148290755</v>
+      </c>
+      <c r="H87">
+        <v>0.007899319527784346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01309603467549495</v>
+        <v>-0.03710810196141684</v>
       </c>
       <c r="C88">
-        <v>0.01380652909810963</v>
+        <v>-0.006729710788114453</v>
       </c>
       <c r="D88">
-        <v>0.004298495472189218</v>
+        <v>-0.005853774239972073</v>
       </c>
       <c r="E88">
-        <v>0.02033335780795693</v>
+        <v>-0.004498324746828548</v>
       </c>
       <c r="F88">
-        <v>0.02633987832644018</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01087550067423875</v>
+      </c>
+      <c r="G88">
+        <v>-0.002698575972159376</v>
+      </c>
+      <c r="H88">
+        <v>-0.02708829951877029</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.07276575906566722</v>
+        <v>-0.1360816956633725</v>
       </c>
       <c r="C89">
-        <v>0.1219834060142022</v>
+        <v>0.01468608953829431</v>
       </c>
       <c r="D89">
-        <v>0.2395377294697951</v>
+        <v>-0.3637235192056217</v>
       </c>
       <c r="E89">
-        <v>-0.2277140153920468</v>
+        <v>0.07204140226870273</v>
       </c>
       <c r="F89">
-        <v>0.04509418764990571</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1498114398718105</v>
+      </c>
+      <c r="G89">
+        <v>0.004111102935491948</v>
+      </c>
+      <c r="H89">
+        <v>-0.101041174468781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07564058881157217</v>
+        <v>-0.1017118413910297</v>
       </c>
       <c r="C90">
-        <v>0.1192627187309669</v>
+        <v>0.007904485019745625</v>
       </c>
       <c r="D90">
-        <v>0.2553234096901539</v>
+        <v>-0.3048712262745739</v>
       </c>
       <c r="E90">
-        <v>-0.1743172525598512</v>
+        <v>0.04196595116783301</v>
       </c>
       <c r="F90">
-        <v>0.02020826652320403</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1402661482689918</v>
+      </c>
+      <c r="G90">
+        <v>0.0355184099591397</v>
+      </c>
+      <c r="H90">
+        <v>-0.05951877382623356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2849886352655074</v>
+        <v>-0.2525392661569751</v>
       </c>
       <c r="C91">
-        <v>0.08193184323678808</v>
+        <v>0.1498038771304448</v>
       </c>
       <c r="D91">
-        <v>-0.08225587739943277</v>
+        <v>0.08721757034860121</v>
       </c>
       <c r="E91">
-        <v>0.05423820964006545</v>
+        <v>0.02697195771919262</v>
       </c>
       <c r="F91">
-        <v>-0.2998248032540133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1206797007673912</v>
+      </c>
+      <c r="G91">
+        <v>0.2472401918262676</v>
+      </c>
+      <c r="H91">
+        <v>-0.05569456029786393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1162922124070167</v>
+        <v>-0.1650846707621723</v>
       </c>
       <c r="C92">
-        <v>0.09879309578689138</v>
+        <v>0.08491612858397533</v>
       </c>
       <c r="D92">
-        <v>0.2786574406376059</v>
+        <v>-0.3084934182316416</v>
       </c>
       <c r="E92">
-        <v>-0.1634754416421975</v>
+        <v>0.02731441280378314</v>
       </c>
       <c r="F92">
-        <v>0.01085243337862444</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.139503493534702</v>
+      </c>
+      <c r="G92">
+        <v>0.0964568216907173</v>
+      </c>
+      <c r="H92">
+        <v>-0.1674154018459601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07074139314585766</v>
+        <v>-0.1259960461215905</v>
       </c>
       <c r="C93">
-        <v>0.1107968074963621</v>
+        <v>0.0189831689810659</v>
       </c>
       <c r="D93">
-        <v>0.3181342800280528</v>
+        <v>-0.3494600348990021</v>
       </c>
       <c r="E93">
-        <v>-0.2353598441689298</v>
+        <v>0.05834963215164515</v>
       </c>
       <c r="F93">
-        <v>-0.009823385889975399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2025054684858378</v>
+      </c>
+      <c r="G93">
+        <v>0.05260559916419424</v>
+      </c>
+      <c r="H93">
+        <v>0.001918194142395606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2412680977947576</v>
+        <v>-0.2595948284351747</v>
       </c>
       <c r="C94">
-        <v>0.1126807285976916</v>
+        <v>0.1322650341991391</v>
       </c>
       <c r="D94">
-        <v>-0.006787635344673908</v>
+        <v>0.03021878913884644</v>
       </c>
       <c r="E94">
-        <v>0.02459986439942397</v>
+        <v>0.04336370787447046</v>
       </c>
       <c r="F94">
-        <v>-0.3479109140905491</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1204415958048456</v>
+      </c>
+      <c r="G94">
+        <v>0.2811932268078509</v>
+      </c>
+      <c r="H94">
+        <v>-0.0487256286252245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1400880321842308</v>
+        <v>-0.09737095785411981</v>
       </c>
       <c r="C95">
-        <v>0.003649823373411248</v>
+        <v>0.0605503274290522</v>
       </c>
       <c r="D95">
-        <v>-0.1321127756183776</v>
+        <v>0.05523191506425397</v>
       </c>
       <c r="E95">
-        <v>0.01494159964968332</v>
+        <v>0.08071786541615802</v>
       </c>
       <c r="F95">
-        <v>0.1062510690594975</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01679325792005643</v>
+      </c>
+      <c r="G95">
+        <v>-0.09494999776638581</v>
+      </c>
+      <c r="H95">
+        <v>-0.1203904262455075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1939524707163993</v>
+        <v>-0.1806648017625317</v>
       </c>
       <c r="C98">
-        <v>0.0687426951223076</v>
+        <v>0.09553673269112163</v>
       </c>
       <c r="D98">
-        <v>0.02592424027357083</v>
+        <v>-0.0329163667995632</v>
       </c>
       <c r="E98">
-        <v>-0.1074841208611756</v>
+        <v>0.07045357997849118</v>
       </c>
       <c r="F98">
-        <v>0.1114169436586936</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.00813925400836156</v>
+      </c>
+      <c r="G98">
+        <v>-0.201681422326131</v>
+      </c>
+      <c r="H98">
+        <v>0.3870200287341733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002904475692803518</v>
+        <v>-0.01628611389878151</v>
       </c>
       <c r="C101">
-        <v>0.01745133761802767</v>
+        <v>0.003118754650680146</v>
       </c>
       <c r="D101">
-        <v>-0.05436249045247944</v>
+        <v>0.01482182799232619</v>
       </c>
       <c r="E101">
-        <v>0.04964483052435032</v>
+        <v>-0.002100727876652923</v>
       </c>
       <c r="F101">
-        <v>0.0529283559130828</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03690094009718702</v>
+      </c>
+      <c r="G101">
+        <v>-0.0781463055193123</v>
+      </c>
+      <c r="H101">
+        <v>-0.1208005000117553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09381852727455973</v>
+        <v>-0.1108476574974968</v>
       </c>
       <c r="C102">
-        <v>0.02745878956891706</v>
+        <v>0.05430371358227822</v>
       </c>
       <c r="D102">
-        <v>-0.04192373832289981</v>
+        <v>0.03497716961403911</v>
       </c>
       <c r="E102">
-        <v>0.04907712624655959</v>
+        <v>0.003490954443113427</v>
       </c>
       <c r="F102">
-        <v>-0.1078979995023944</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06854209625399782</v>
+      </c>
+      <c r="G102">
+        <v>0.1139918348116413</v>
+      </c>
+      <c r="H102">
+        <v>-0.007367566393935496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02399322057024988</v>
+        <v>-0.02443262993939486</v>
       </c>
       <c r="C103">
-        <v>0.008124704820707217</v>
+        <v>0.0126709924368027</v>
       </c>
       <c r="D103">
-        <v>-0.001588779053984205</v>
+        <v>0.007615556209503866</v>
       </c>
       <c r="E103">
-        <v>0.001490959761658063</v>
+        <v>-0.006200334573873999</v>
       </c>
       <c r="F103">
-        <v>-0.03693227102723767</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01211682828815316</v>
+      </c>
+      <c r="G103">
+        <v>0.0142237798628101</v>
+      </c>
+      <c r="H103">
+        <v>-0.01536326914577168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3909696632523912</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8995821313978419</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.002782127500159288</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.005748649688191445</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1634276947085027</v>
+      </c>
+      <c r="G104">
+        <v>0.04739564296759537</v>
+      </c>
+      <c r="H104">
+        <v>-0.001381850024319869</v>
       </c>
     </row>
   </sheetData>
